--- a/electronicsexp2/3_feedback_circuit/feedback_circuit_report/raw_expdata_feedback.xlsx
+++ b/electronicsexp2/3_feedback_circuit/feedback_circuit_report/raw_expdata_feedback.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacki\Desktop\Jackie\LaTeX\electronics_exp\electronicsexp2\3_feedback_circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacki\Desktop\Jackie\LaTeX\electronics_exp\electronicsexp2\3_feedback_circuit\feedback_circuit_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E050180-8AEF-4F1E-AB07-FA04BA815983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A933CF4F-CA99-482A-92E7-63C0C67C1086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32087021-6D26-4349-A5E8-EDE2A46A5A31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>f</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>log f</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -1587,15 +1590,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B6B88B-08E7-46BB-BF60-7E42B14D531D}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>0.12</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D20" si="0">C2/B2</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="F2">
@@ -1634,11 +1637,11 @@
         <v>2.6989700043360187</v>
       </c>
       <c r="G2">
-        <f>20 *LOG10(D2)</f>
+        <f t="shared" ref="G2:G20" si="1">20 *LOG10(D2)</f>
         <v>-24.608978427565479</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1649,19 +1652,19 @@
         <v>0.215</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.10436893203883495</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="0">LOG10(A3) + 3</f>
+        <f t="shared" ref="F3:F20" si="2">LOG10(A3) + 3</f>
         <v>3</v>
       </c>
       <c r="G3">
-        <f>20 *LOG10(D3)</f>
+        <f t="shared" si="1"/>
         <v>-19.628575209070963</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1672,19 +1675,19 @@
         <v>0.42</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3010299956639813</v>
       </c>
       <c r="G4">
-        <f>20 *LOG10(D4)</f>
+        <f t="shared" si="1"/>
         <v>-13.727617540559967</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1695,19 +1698,19 @@
         <v>0.63</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.30882352941176472</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4771212547196626</v>
       </c>
       <c r="G5">
-        <f>20 *LOG10(D5)</f>
+        <f t="shared" si="1"/>
         <v>-10.20579235944634</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1718,19 +1721,19 @@
         <v>1.08</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.65853658536585369</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6989700043360187</v>
       </c>
       <c r="G6">
-        <f>20 *LOG10(D6)</f>
+        <f t="shared" si="1"/>
         <v>-3.6284018512149636</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1741,19 +1744,19 @@
         <v>1.58</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>1.6808510638297873</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G7">
-        <f>20 *LOG10(D7)</f>
+        <f t="shared" si="1"/>
         <v>4.5105846670944798</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1764,19 +1767,22 @@
         <v>0.86</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0791812460476251</v>
       </c>
       <c r="G8">
-        <f>20 *LOG10(D8)</f>
+        <f t="shared" si="1"/>
         <v>7.9588001734407516</v>
       </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12.5</v>
       </c>
@@ -1787,19 +1793,19 @@
         <v>1.3</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>2.7083333333333335</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0969100130080562</v>
       </c>
       <c r="G9">
-        <f>20 *LOG10(D9)</f>
+        <f t="shared" si="1"/>
         <v>8.6540422986249901</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1810,19 +1816,19 @@
         <v>1.02</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>2.9651162790697678</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1139433523068369</v>
       </c>
       <c r="G10">
-        <f>20 *LOG10(D10)</f>
+        <f t="shared" si="1"/>
         <v>9.4408345838077494</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1833,19 +1839,19 @@
         <v>1.18</v>
       </c>
       <c r="D11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>3.4302325581395348</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1461280356782382</v>
       </c>
       <c r="G11">
-        <f>20 *LOG10(D11)</f>
+        <f t="shared" si="1"/>
         <v>10.706471294691905</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1856,19 +1862,22 @@
         <v>1.32</v>
       </c>
       <c r="D12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>3.666666666666667</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1760912590556813</v>
       </c>
       <c r="G12">
-        <f>20 *LOG10(D12)</f>
+        <f t="shared" si="1"/>
         <v>11.285428608771253</v>
       </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1879,19 +1888,19 @@
         <v>1.2</v>
       </c>
       <c r="D13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2552725051033065</v>
       </c>
       <c r="G13">
-        <f>20 *LOG10(D13)</f>
+        <f t="shared" si="1"/>
         <v>10.457574905606752</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1902,19 +1911,19 @@
         <v>1.7</v>
       </c>
       <c r="D14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>3.0357142857142851</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2787536009528289</v>
       </c>
       <c r="G14">
-        <f>20 *LOG10(D14)</f>
+        <f t="shared" si="1"/>
         <v>9.6452178874414685</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1925,19 +1934,19 @@
         <v>1.52</v>
       </c>
       <c r="D15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>2.714285714285714</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3010299956639813</v>
       </c>
       <c r="G15">
-        <f>20 *LOG10(D15)</f>
+        <f t="shared" si="1"/>
         <v>8.6731112187714423</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20.5</v>
       </c>
@@ -1948,16 +1957,19 @@
         <v>1.24</v>
       </c>
       <c r="D16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>2.540983606557377</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3117538610557542</v>
       </c>
       <c r="G16">
-        <f>20 *LOG10(D16)</f>
+        <f t="shared" si="1"/>
         <v>8.1000372631904902</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1971,15 +1983,15 @@
         <v>1.36</v>
       </c>
       <c r="D17">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3222192947339195</v>
       </c>
       <c r="G17">
-        <f>20 *LOG10(D17)</f>
+        <f t="shared" si="1"/>
         <v>7.7070176272803419</v>
       </c>
     </row>
@@ -1994,15 +2006,15 @@
         <v>0.96</v>
       </c>
       <c r="D18">
-        <f>C18/B18</f>
+        <f t="shared" si="0"/>
         <v>1.7647058823529409</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3979400086720375</v>
       </c>
       <c r="G18">
-        <f>20 *LOG10(D18)</f>
+        <f t="shared" si="1"/>
         <v>4.933446666827769</v>
       </c>
     </row>
@@ -2017,15 +2029,15 @@
         <v>0.74</v>
       </c>
       <c r="D19">
-        <f>C19/B19</f>
+        <f t="shared" si="0"/>
         <v>1.3602941176470587</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4771212547196626</v>
       </c>
       <c r="G19">
-        <f>20 *LOG10(D19)</f>
+        <f t="shared" si="1"/>
         <v>2.6726564006559244</v>
       </c>
     </row>
@@ -2040,15 +2052,15 @@
         <v>0.52</v>
       </c>
       <c r="D20">
-        <f>C20/B20</f>
+        <f t="shared" si="0"/>
         <v>1.0833333333333335</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6020599913279625</v>
       </c>
       <c r="G20">
-        <f>20 *LOG10(D20)</f>
+        <f t="shared" si="1"/>
         <v>0.69524212518424</v>
       </c>
     </row>
